--- a/5/2/4/Promedios 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Trimestral.xlsx
@@ -4440,8 +4440,26 @@
       <c r="B127">
         <v>22959</v>
       </c>
+      <c r="C127">
+        <v>20738</v>
+      </c>
+      <c r="D127">
+        <v>1121</v>
+      </c>
+      <c r="E127">
+        <v>1089</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
       <c r="G127">
         <v>22959</v>
+      </c>
+      <c r="H127">
+        <v>9265</v>
+      </c>
+      <c r="I127">
+        <v>13694</v>
       </c>
     </row>
   </sheetData>

--- a/5/2/4/Promedios 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>Serie</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4462,6 +4465,17 @@
         <v>13694</v>
       </c>
     </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>23371</v>
+      </c>
+      <c r="G128">
+        <v>23371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/4/Promedios 1990 a 2021 - Trimestral.xlsx
+++ b/5/2/4/Promedios 1990 a 2021 - Trimestral.xlsx
@@ -4470,10 +4470,10 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>23371</v>
+        <v>23479</v>
       </c>
       <c r="G128">
-        <v>23371</v>
+        <v>23479</v>
       </c>
     </row>
   </sheetData>
